--- a/rhla_analysis/rhla1_6_exp_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k6.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008721359388670812</v>
+        <v>0.00974537835694504</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3105678355726083</v>
+        <v>0.3083589745452528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1982097186700767</v>
+        <v>0.1364562118126273</v>
       </c>
       <c r="D2" t="n">
-        <v>35.61002611313564</v>
+        <v>31.6415600555417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006397789760522179</v>
+        <v>0.004884550870527489</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3118926490295766</v>
+        <v>0.3120752932406369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2186700767263427</v>
+        <v>0.1527494908350306</v>
       </c>
       <c r="D3" t="n">
-        <v>48.7500622408887</v>
+        <v>63.89027394998458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008433987532528482</v>
+        <v>0.007339395107813662</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3058001391866874</v>
+        <v>0.3074658761948552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1977834612105712</v>
+        <v>0.1469789545145961</v>
       </c>
       <c r="D4" t="n">
-        <v>36.25807342105585</v>
+        <v>41.89253633007453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01783794450157055</v>
+        <v>0.01708174825608674</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2987722781226715</v>
+        <v>0.2978528254753746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.185848252344416</v>
+        <v>0.13306177868296</v>
       </c>
       <c r="D5" t="n">
-        <v>16.74925483125962</v>
+        <v>17.43690522831823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004720870710697214</v>
+        <v>0.00431925229649399</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2867145243614995</v>
+        <v>0.2894015546045077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2208013640238704</v>
+        <v>0.1687033265444671</v>
       </c>
       <c r="D6" t="n">
-        <v>60.73339897062237</v>
+        <v>67.00269739728328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005966673545914397</v>
+        <v>0.00482631689939909</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3090064609021656</v>
+        <v>0.3058411892167595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1977834612105712</v>
+        <v>0.1510522742701969</v>
       </c>
       <c r="D7" t="n">
-        <v>51.78873262033144</v>
+        <v>63.36947937563712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01527893380438516</v>
+        <v>0.01557329876193002</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2893897804117547</v>
+        <v>0.2918655941852732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20076726342711</v>
+        <v>0.1503733876442634</v>
       </c>
       <c r="D8" t="n">
-        <v>18.94044336579937</v>
+        <v>18.74141109388836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.007963683322331272</v>
+        <v>0.00722746392656291</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2746365451083873</v>
+        <v>0.2787379512230352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216538789428815</v>
+        <v>0.1612355736591989</v>
       </c>
       <c r="D9" t="n">
-        <v>34.48612080521438</v>
+        <v>38.56649497738714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01221072122689724</v>
+        <v>0.01294803167157433</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3486911483945707</v>
+        <v>0.3542070846849655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2220801364023871</v>
+        <v>0.1571622539035981</v>
       </c>
       <c r="D10" t="n">
-        <v>28.55614684139125</v>
+        <v>27.35605640064812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005782643553614605</v>
+        <v>0.006920097267041799</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2981031867803401</v>
+        <v>0.296867332678848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1926683716965047</v>
+        <v>0.1334012219959267</v>
       </c>
       <c r="D11" t="n">
-        <v>51.55136816171252</v>
+        <v>42.89930057670312</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00974537835694504</v>
+        <v>0.009745378356945042</v>
       </c>
       <c r="B2" t="n">
         <v>0.3083589745452528</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004884550870527489</v>
+        <v>0.004884550870527454</v>
       </c>
       <c r="B3" t="n">
         <v>0.3120752932406369</v>
@@ -480,12 +480,12 @@
         <v>0.1527494908350306</v>
       </c>
       <c r="D3" t="n">
-        <v>63.89027394998458</v>
+        <v>63.89027394998504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.007339395107813662</v>
+        <v>0.007339395107813681</v>
       </c>
       <c r="B4" t="n">
         <v>0.3074658761948552</v>
@@ -494,12 +494,12 @@
         <v>0.1469789545145961</v>
       </c>
       <c r="D4" t="n">
-        <v>41.89253633007453</v>
+        <v>41.89253633007444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01708174825608674</v>
+        <v>0.01708174825608683</v>
       </c>
       <c r="B5" t="n">
         <v>0.2978528254753746</v>
@@ -508,21 +508,21 @@
         <v>0.13306177868296</v>
       </c>
       <c r="D5" t="n">
-        <v>17.43690522831823</v>
+        <v>17.43690522831814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00431925229649399</v>
+        <v>0.004319252296493956</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2894015546045077</v>
+        <v>0.2894015546045078</v>
       </c>
       <c r="C6" t="n">
         <v>0.1687033265444671</v>
       </c>
       <c r="D6" t="n">
-        <v>67.00269739728328</v>
+        <v>67.00269739728382</v>
       </c>
     </row>
     <row r="7">
@@ -536,40 +536,40 @@
         <v>0.1510522742701969</v>
       </c>
       <c r="D7" t="n">
-        <v>63.36947937563712</v>
+        <v>63.36947937563711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01557329876193002</v>
+        <v>0.01557329876193008</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2918655941852732</v>
+        <v>0.2918655941852731</v>
       </c>
       <c r="C8" t="n">
         <v>0.1503733876442634</v>
       </c>
       <c r="D8" t="n">
-        <v>18.74141109388836</v>
+        <v>18.74141109388829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00722746392656291</v>
+        <v>0.007227463926562916</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2787379512230352</v>
+        <v>0.2787379512230351</v>
       </c>
       <c r="C9" t="n">
         <v>0.1612355736591989</v>
       </c>
       <c r="D9" t="n">
-        <v>38.56649497738714</v>
+        <v>38.5664949773871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01294803167157433</v>
+        <v>0.01294803167157426</v>
       </c>
       <c r="B10" t="n">
         <v>0.3542070846849655</v>
@@ -578,12 +578,12 @@
         <v>0.1571622539035981</v>
       </c>
       <c r="D10" t="n">
-        <v>27.35605640064812</v>
+        <v>27.35605640064827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006920097267041799</v>
+        <v>0.006920097267041785</v>
       </c>
       <c r="B11" t="n">
         <v>0.296867332678848</v>
@@ -592,7 +592,7 @@
         <v>0.1334012219959267</v>
       </c>
       <c r="D11" t="n">
-        <v>42.89930057670312</v>
+        <v>42.89930057670321</v>
       </c>
     </row>
   </sheetData>
